--- a/data/taskNamesAndTimes.xlsx
+++ b/data/taskNamesAndTimes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Task names</t>
   </si>
@@ -28,43 +28,31 @@
     <t xml:space="preserve">Task time</t>
   </si>
   <si>
-    <t xml:space="preserve">Assembly frame none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble cutter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble motor and G.B.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble crank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble pickup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble belt cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble tensioned and cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble bucket and disk with shaft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble feed motor and belt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble circuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble hopper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble wires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemble outer cover</t>
+    <t xml:space="preserve">Mount electronic control panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install safety sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach support brackets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assemble main drive shaft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install hydraulic pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mount conveyor belt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attach cutting blades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install gear synchronization unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assemble drive chain mechanism</t>
   </si>
 </sst>
 </file>
@@ -79,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,12 +134,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,126 +175,110 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>20</v>
+      <c r="B2" s="2" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>20</v>
+      <c r="B3" s="2" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>45</v>
+      <c r="B4" s="2" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>15</v>
+      <c r="B10" s="2" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>5</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>4</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>6</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
